--- a/data/annotations/new_annotation_structure_out/iteration_13/iteration_13_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_13/iteration_13_mistral-large-2411-2.xlsx
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -4108,16 +4108,16 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4261,13 +4261,13 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4336,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -7465,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
